--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc812f32e54314c3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R1ffcc01760794e3f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R1ffcc01760794e3f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5184e22027974f1f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5184e22027974f1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R55e3f4143a6042e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R55e3f4143a6042e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R50da9d76ba724794"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R50da9d76ba724794"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R2da4874e5a794b2b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R2da4874e5a794b2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R0f6a24a137344001"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R0f6a24a137344001"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R58d8724b48e646be"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R58d8724b48e646be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R8e857dfffff6428a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R8e857dfffff6428a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rdbbe7570bf0546d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rdbbe7570bf0546d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Re247f9d8dee7424a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Re247f9d8dee7424a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R19efccd2b6dd4fdf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R19efccd2b6dd4fdf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R343541a7f3674e32"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/015_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R343541a7f3674e32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R6a9decaae3a84292"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
